--- a/UnifiedVol/data/Analysis_SPY.xlsx
+++ b/UnifiedVol/data/Analysis_SPY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OptionPricer\OptionPricer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnifiedVol\UnifiedVol\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE17E54-5EB8-4536-BD17-6A8CF72E0B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8C0CE-8ED7-4BAE-9F47-751E5EE4748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6000" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Data" sheetId="3" r:id="rId1"/>
@@ -246,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -2682,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39C3EA9-723E-4293-A65C-F5C69A6F5791}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3367,7 +3367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO45"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
